--- a/计划.xlsx
+++ b/计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>使用人</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>账号明细</t>
+  </si>
+  <si>
+    <t>首页-活动</t>
   </si>
   <si>
     <t>管理端</t>
@@ -137,12 +140,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,10 +154,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,6 +191,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -173,29 +220,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,25 +250,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,6 +267,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -257,8 +282,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,36 +293,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,121 +307,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,61 +487,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +498,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,17 +527,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -553,17 +551,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,20 +577,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,148 +603,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1107,10 +1103,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1307,18 +1303,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+    <row r="24" spans="2:3">
+      <c r="B24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -1334,12 +1330,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
-      <c r="B28" t="s">
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>14</v>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="2:3">
@@ -1366,18 +1362,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+    <row r="32" spans="2:3">
+      <c r="B32" t="s">
         <v>34</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3">
       <c r="B34" t="s">
         <v>36</v>
       </c>
@@ -1385,9 +1381,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
         <v>37</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/计划.xlsx
+++ b/计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75">
   <si>
     <t>使用人</t>
   </si>
@@ -42,6 +42,9 @@
     <t>绑定店铺</t>
   </si>
   <si>
+    <t>绑定店铺要加认证，同时限制两个</t>
+  </si>
+  <si>
     <t>充值</t>
   </si>
   <si>
@@ -51,9 +54,63 @@
     <t>只支持第一种类型，后续还要补上其他类型的任务</t>
   </si>
   <si>
+    <t>主图是要上传</t>
+  </si>
+  <si>
+    <t>关键词 加一口价   新店搜索条件</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>爆款打造   客单控制，默认转换率为0，20,10，5,1 时间12（50%）,16（25%）,20(剩余)（3个小时不下单取消资格）</t>
+  </si>
+  <si>
+    <t>新品提升  今天申请，隔天开奖（早上10点开奖，晚上10点取消，放必中）</t>
+  </si>
+  <si>
+    <t>高客单 展示3、4、5，开始抽奖，抽几个 300以上，一份以上</t>
+  </si>
+  <si>
+    <t>新人转化-成交控制，谁申请谁中，按小时 放单   控制申请数，30分钟不下单，取消资格</t>
+  </si>
+  <si>
+    <t>验证宝贝是否属于该店铺</t>
+  </si>
+  <si>
+    <t>关键字 多个  试客可以换</t>
+  </si>
+  <si>
+    <t xml:space="preserve">淘口令 50%以下 二维码去掉 </t>
+  </si>
+  <si>
+    <t>增值功能 免费加上   指定货比也收费   晒图要收费</t>
+  </si>
+  <si>
+    <t>系统自动抽奖-10块服务费 2%转换手续费</t>
+  </si>
+  <si>
+    <t>付款有bug</t>
+  </si>
+  <si>
+    <t>首页</t>
+  </si>
+  <si>
+    <t>要做，制作注册登录+浏览</t>
+  </si>
+  <si>
+    <t>帮助中心</t>
+  </si>
+  <si>
+    <t>https://www.xinshike.com/help/index  消息中心移动过来</t>
+  </si>
+  <si>
     <t>支付</t>
   </si>
   <si>
+    <t>主图要和美丽啪对下</t>
+  </si>
+  <si>
     <t>余额功能</t>
   </si>
   <si>
@@ -72,12 +129,21 @@
     <t>试客</t>
   </si>
   <si>
+    <t>试客的时候不绑淘宝、支付宝， 提现的时候才绑定支付宝， 添加购物车绑定淘宝</t>
+  </si>
+  <si>
+    <t>试客充值</t>
+  </si>
+  <si>
     <t>申请试用</t>
   </si>
   <si>
     <t>收藏关注</t>
   </si>
   <si>
+    <t>3 5 2比例</t>
+  </si>
+  <si>
     <t>中奖</t>
   </si>
   <si>
@@ -87,6 +153,9 @@
     <t>好评</t>
   </si>
   <si>
+    <t>好评之后24小时，提供审核申述功能</t>
+  </si>
+  <si>
     <t>返款</t>
   </si>
   <si>
@@ -96,6 +165,21 @@
     <t>账号明细</t>
   </si>
   <si>
+    <t>我的</t>
+  </si>
+  <si>
+    <t>只要QQ，地址不要   要：业务通知，我的活动，代言人</t>
+  </si>
+  <si>
+    <t>试呗好货</t>
+  </si>
+  <si>
+    <t>免费试用、必中</t>
+  </si>
+  <si>
+    <t>10点必中</t>
+  </si>
+  <si>
     <t>首页-活动</t>
   </si>
   <si>
@@ -108,10 +192,19 @@
     <t>提现审批</t>
   </si>
   <si>
+    <t>商家1%手续费、试客6%</t>
+  </si>
+  <si>
     <t>活动审批</t>
   </si>
   <si>
-    <t>统计</t>
+    <t>商家店铺绑定审核  审核店铺可靠行，发布的店铺要审核</t>
+  </si>
+  <si>
+    <t>试客任务列表</t>
+  </si>
+  <si>
+    <t>对试客任务的取消</t>
   </si>
   <si>
     <t>用户列表</t>
@@ -123,6 +216,15 @@
     <t>统计功能</t>
   </si>
   <si>
+    <t>店铺列表</t>
+  </si>
+  <si>
+    <t>代言人列表</t>
+  </si>
+  <si>
+    <t>金币和余额流水</t>
+  </si>
+  <si>
     <t>三端</t>
   </si>
   <si>
@@ -132,7 +234,13 @@
     <t>金币功能</t>
   </si>
   <si>
+    <t>返现 之后返回200</t>
+  </si>
+  <si>
     <t>还有一些要你们自己理出来</t>
+  </si>
+  <si>
+    <t>浏览任务</t>
   </si>
 </sst>
 </file>
@@ -140,10 +248,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -151,6 +259,111 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -163,48 +376,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -219,53 +390,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -275,22 +399,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -307,187 +415,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -504,33 +612,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -555,6 +637,41 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -571,15 +688,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -606,10 +714,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -618,141 +726,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1103,19 +1214,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="25.375" customWidth="1"/>
-    <col min="4" max="4" width="46.25" customWidth="1"/>
+    <col min="4" max="4" width="110.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1124,6 +1235,9 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1145,17 +1259,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:4">
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
@@ -1163,133 +1280,134 @@
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3">
-      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" t="s">
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" t="s">
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
-      <c r="B10" t="s">
+    <row r="9" spans="2:4">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" t="s">
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3">
-      <c r="B15" t="s">
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3">
-      <c r="B16" t="s">
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" t="s">
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" t="s">
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" t="s">
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>5</v>
@@ -1297,104 +1415,296 @@
     </row>
     <row r="23" spans="2:3">
       <c r="B23" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="B24" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
       <c r="B25" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="2:3">
       <c r="B29" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="2:3">
       <c r="B30" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="2:3">
+      <c r="B50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" spans="2:3">
+      <c r="B51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="2:3">
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D20" r:id="rId1" display="https://www.xinshike.com/help/index  消息中心移动过来"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
